--- a/Fund/Project-Management/Performance-Report.xlsx
+++ b/Fund/Project-Management/Performance-Report.xlsx
@@ -38,9 +38,6 @@
     <t>Tung Nguyen</t>
   </si>
   <si>
-    <t>Hung Nguyen</t>
-  </si>
-  <si>
     <t>Draw block diagram</t>
   </si>
   <si>
@@ -78,6 +75,9 @@
   </si>
   <si>
     <t>Survey the farms</t>
+  </si>
+  <si>
+    <t>Survey the user</t>
   </si>
   <si>
     <t>Research water quality for plant/herb/veggie</t>
@@ -108,7 +108,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="0%"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -145,11 +145,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <u val="single"/>
       <sz val="10"/>
@@ -178,7 +173,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -205,13 +200,6 @@
       <right style="hair"/>
       <top style="hair"/>
       <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -303,20 +291,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -336,47 +328,47 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -384,23 +376,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -421,76 +405,75 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:K25"/>
+  <dimension ref="B1:AMJ26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3.86224489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="12.5714285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="43.2857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="7.03061224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="14.5408163265306"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="1" width="14.5408163265306"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.7091836734694"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.7091836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="11.5714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.86224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.5714285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.2857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="7.03061224489796"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="14.5408163265306"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="14.5408163265306"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.7091836734694"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.7091836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.5714285714286"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1" s="3"/>
+    <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="4"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="3"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="4"/>
+      <c r="AMJ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="F5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="10"/>
       <c r="C6" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="12" t="n">
         <v>5</v>
@@ -500,12 +483,11 @@
       <c r="G6" s="13" t="n">
         <v>0.85</v>
       </c>
-      <c r="H6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="14"/>
       <c r="C7" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="16" t="n">
         <v>5</v>
@@ -515,12 +497,11 @@
       <c r="G7" s="17" t="n">
         <v>0.7</v>
       </c>
-      <c r="H7" s="17"/>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="14"/>
       <c r="C8" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="16" t="n">
         <v>15</v>
@@ -532,12 +513,11 @@
         <v>0.6</v>
       </c>
       <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="14"/>
       <c r="C9" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="16" t="n">
         <v>5</v>
@@ -547,12 +527,11 @@
       <c r="G9" s="17" t="n">
         <v>0.4</v>
       </c>
-      <c r="H9" s="17"/>
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="14"/>
       <c r="C10" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="16" t="n">
         <v>5</v>
@@ -562,12 +541,11 @@
         <v>0.4</v>
       </c>
       <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="14"/>
       <c r="C11" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="16" t="n">
         <v>5</v>
@@ -577,12 +555,11 @@
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="14"/>
       <c r="C12" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="16" t="n">
         <v>5</v>
@@ -592,12 +569,11 @@
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="14"/>
       <c r="C13" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="16" t="n">
         <v>10</v>
@@ -607,12 +583,11 @@
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
     </row>
     <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="14"/>
       <c r="C14" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="16" t="n">
         <v>15</v>
@@ -620,12 +595,11 @@
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="14"/>
       <c r="C15" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" s="16" t="n">
         <v>15</v>
@@ -635,12 +609,11 @@
         <v>0.3</v>
       </c>
       <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="14"/>
       <c r="C16" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" s="16" t="n">
         <v>5</v>
@@ -652,55 +625,53 @@
         <v>0.3</v>
       </c>
       <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
     </row>
     <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="14"/>
       <c r="C17" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" s="16" t="n">
         <v>15</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17" t="n">
-        <v>0.1</v>
+      <c r="G17" s="17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="14"/>
       <c r="C18" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="16" t="n">
         <v>15</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17" t="n">
-        <v>0.1</v>
+      <c r="G18" s="17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="14"/>
-      <c r="C19" s="18" t="s">
-        <v>21</v>
+      <c r="C19" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="D19" s="16" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
+      <c r="G19" s="17" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="14"/>
       <c r="C20" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" s="16" t="n">
         <v>5</v>
@@ -708,49 +679,62 @@
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
     </row>
     <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="16"/>
+      <c r="C21" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="16" t="n">
+        <v>5</v>
+      </c>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+    </row>
+    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="0"/>
+      <c r="E24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="23" t="s">
+      <c r="D25" s="0"/>
+      <c r="E25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="24" t="n">
+      <c r="D26" s="23" t="n">
         <f aca="true">SUM(INDIRECT(ADDRESS(1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
-        <v>130</v>
-      </c>
-      <c r="E25" s="3" t="n">
-        <f aca="false">SUMPRODUCT($D6:$D22 * E6:E22)</f>
+        <v>145</v>
+      </c>
+      <c r="E26" s="4" t="n">
+        <f aca="false">SUMPRODUCT($D6:$D23 * E6:E23)</f>
         <v>14.75</v>
       </c>
-      <c r="F25" s="3" t="n">
-        <f aca="false">SUMPRODUCT($D6:$D22 * F6:F22)</f>
+      <c r="F26" s="4" t="n">
+        <f aca="false">SUMPRODUCT($D6:$D23 * F6:F23)</f>
         <v>17</v>
       </c>
-      <c r="G25" s="3" t="n">
-        <f aca="false">SUMPRODUCT($D6:$D22 * G6:G22)</f>
-        <v>9.75</v>
-      </c>
-      <c r="H25" s="3" t="n">
-        <f aca="false">SUMPRODUCT($D6:$D22 * H6:H22)</f>
-        <v>3</v>
+      <c r="G26" s="4" t="n">
+        <f aca="false">SUMPRODUCT($D6:$D23 * G6:G23)</f>
+        <v>10.5</v>
       </c>
     </row>
   </sheetData>
